--- a/debug/MORPHO_debug.xlsx
+++ b/debug/MORPHO_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -568,20 +568,25 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>Stop_Loss</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>cutoff_price</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_name</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_price</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>next_buy_trigger_price</t>
         </is>
@@ -671,17 +676,20 @@
         <v>0.40068</v>
       </c>
       <c r="AA2" t="n">
-        <v/>
-      </c>
-      <c r="AB2" t="inlineStr">
+        <v>0.36252</v>
+      </c>
+      <c r="AB2" t="n">
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.40068</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>1.809</v>
       </c>
     </row>
@@ -769,17 +777,20 @@
         <v>0.40257</v>
       </c>
       <c r="AA3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
+        <v>0.36423</v>
+      </c>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.40257</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>1.824</v>
       </c>
     </row>
@@ -867,17 +878,20 @@
         <v>0.4221</v>
       </c>
       <c r="AA4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
+        <v>0.3819</v>
+      </c>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.4221</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>1.834</v>
       </c>
     </row>
@@ -965,17 +979,20 @@
         <v>0.4221</v>
       </c>
       <c r="AA5" t="n">
-        <v/>
-      </c>
-      <c r="AB5" t="inlineStr">
+        <v>0.3819</v>
+      </c>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>0.4221</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>1.773</v>
       </c>
     </row>
@@ -1063,17 +1080,20 @@
         <v>0.4221</v>
       </c>
       <c r="AA6" t="n">
-        <v/>
-      </c>
-      <c r="AB6" t="inlineStr">
+        <v>0.3819</v>
+      </c>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>0.4221</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>1.744</v>
       </c>
     </row>
@@ -1161,17 +1181,20 @@
         <v>0.4221</v>
       </c>
       <c r="AA7" t="n">
-        <v/>
-      </c>
-      <c r="AB7" t="inlineStr">
+        <v>0.3819</v>
+      </c>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>0.4221</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>1.705</v>
       </c>
     </row>
@@ -1259,17 +1282,20 @@
         <v>0.4221</v>
       </c>
       <c r="AA8" t="n">
-        <v/>
-      </c>
-      <c r="AB8" t="inlineStr">
+        <v>0.3819</v>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>0.4221</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>1.361</v>
       </c>
     </row>
@@ -1357,17 +1383,20 @@
         <v>0.4221</v>
       </c>
       <c r="AA9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="inlineStr">
+        <v>0.3819</v>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>0.4221</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>1.322</v>
       </c>
     </row>
@@ -1455,17 +1484,20 @@
         <v>0.42966</v>
       </c>
       <c r="AA10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="inlineStr">
+        <v>0.38874</v>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>0.42966</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>1.574</v>
       </c>
     </row>
@@ -1553,17 +1585,20 @@
         <v>0.42966</v>
       </c>
       <c r="AA11" t="n">
-        <v/>
-      </c>
-      <c r="AB11" t="inlineStr">
+        <v>0.38874</v>
+      </c>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>0.42966</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>1.917</v>
       </c>
     </row>
@@ -1651,17 +1686,20 @@
         <v>0.42966</v>
       </c>
       <c r="AA12" t="n">
-        <v/>
-      </c>
-      <c r="AB12" t="inlineStr">
+        <v>0.38874</v>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>0.42966</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>1.745</v>
       </c>
     </row>
@@ -1749,17 +1787,20 @@
         <v>0.43722</v>
       </c>
       <c r="AA13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="inlineStr">
+        <v>0.39558</v>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>0.43722</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>1.855</v>
       </c>
     </row>
@@ -1847,17 +1888,20 @@
         <v>0.43722</v>
       </c>
       <c r="AA14" t="n">
-        <v/>
-      </c>
-      <c r="AB14" t="inlineStr">
+        <v>0.39558</v>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>0.43722</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>1.744</v>
       </c>
     </row>
@@ -1945,17 +1989,20 @@
         <v>0.43722</v>
       </c>
       <c r="AA15" t="n">
-        <v/>
-      </c>
-      <c r="AB15" t="inlineStr">
+        <v>0.39558</v>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>0.43722</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>1.611</v>
       </c>
     </row>
@@ -2043,17 +2090,20 @@
         <v>0.43722</v>
       </c>
       <c r="AA16" t="n">
-        <v/>
-      </c>
-      <c r="AB16" t="inlineStr">
+        <v>0.39558</v>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>0.43722</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>1.767</v>
       </c>
     </row>
@@ -2073,7 +2123,7 @@
         <v>1.808</v>
       </c>
       <c r="E17" t="n">
-        <v>1.948</v>
+        <v>1.944</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2141,17 +2191,20 @@
         <v>0.43722</v>
       </c>
       <c r="AA17" t="n">
-        <v/>
-      </c>
-      <c r="AB17" t="inlineStr">
+        <v>0.39558</v>
+      </c>
+      <c r="AB17" t="n">
+        <v/>
+      </c>
+      <c r="AC17" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>0.43722</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>1.808</v>
       </c>
     </row>

--- a/debug/MORPHO_debug.xlsx
+++ b/debug/MORPHO_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2123,7 +2123,7 @@
         <v>1.808</v>
       </c>
       <c r="E17" t="n">
-        <v>1.944</v>
+        <v>1.937</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2206,6 +2206,713 @@
       </c>
       <c r="AE17" t="n">
         <v>1.808</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v/>
+      </c>
+      <c r="M18" t="n">
+        <v/>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="P18" t="n">
+        <v/>
+      </c>
+      <c r="Q18" t="n">
+        <v/>
+      </c>
+      <c r="R18" t="n">
+        <v/>
+      </c>
+      <c r="S18" t="n">
+        <v>7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.2572</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.1674</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.92045</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.7857499999999999</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.6286</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.42655</v>
+      </c>
+      <c r="AB18" t="n">
+        <v/>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.885</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v/>
+      </c>
+      <c r="I19" t="n">
+        <v/>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v/>
+      </c>
+      <c r="M19" t="n">
+        <v/>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="P19" t="n">
+        <v/>
+      </c>
+      <c r="Q19" t="n">
+        <v/>
+      </c>
+      <c r="R19" t="n">
+        <v/>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.2572</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.1674</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.92045</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.7857499999999999</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.6286</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.42655</v>
+      </c>
+      <c r="AB19" t="n">
+        <v/>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.822</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v/>
+      </c>
+      <c r="I20" t="n">
+        <v/>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v/>
+      </c>
+      <c r="L20" t="n">
+        <v/>
+      </c>
+      <c r="M20" t="n">
+        <v/>
+      </c>
+      <c r="N20" t="n">
+        <v/>
+      </c>
+      <c r="O20" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="P20" t="n">
+        <v/>
+      </c>
+      <c r="Q20" t="n">
+        <v/>
+      </c>
+      <c r="R20" t="n">
+        <v/>
+      </c>
+      <c r="S20" t="n">
+        <v>7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.2572</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.1674</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.92045</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.7857499999999999</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.6286</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.42655</v>
+      </c>
+      <c r="AB20" t="n">
+        <v/>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.771</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v/>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v/>
+      </c>
+      <c r="L21" t="n">
+        <v/>
+      </c>
+      <c r="M21" t="n">
+        <v/>
+      </c>
+      <c r="N21" t="n">
+        <v/>
+      </c>
+      <c r="O21" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="P21" t="n">
+        <v/>
+      </c>
+      <c r="Q21" t="n">
+        <v/>
+      </c>
+      <c r="R21" t="n">
+        <v/>
+      </c>
+      <c r="S21" t="n">
+        <v>7</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.2572</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.1674</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.92045</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.7857499999999999</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.6286</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.42655</v>
+      </c>
+      <c r="AB21" t="n">
+        <v/>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.812</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.029</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v/>
+      </c>
+      <c r="I22" t="n">
+        <v/>
+      </c>
+      <c r="J22" t="n">
+        <v/>
+      </c>
+      <c r="K22" t="n">
+        <v/>
+      </c>
+      <c r="L22" t="n">
+        <v/>
+      </c>
+      <c r="M22" t="n">
+        <v/>
+      </c>
+      <c r="N22" t="n">
+        <v/>
+      </c>
+      <c r="O22" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="P22" t="n">
+        <v/>
+      </c>
+      <c r="Q22" t="n">
+        <v/>
+      </c>
+      <c r="R22" t="n">
+        <v/>
+      </c>
+      <c r="S22" t="n">
+        <v>7</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.2572</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.1674</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.92045</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.7857499999999999</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.6286</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.42655</v>
+      </c>
+      <c r="AB22" t="n">
+        <v/>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.956</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.989</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v/>
+      </c>
+      <c r="I23" t="n">
+        <v/>
+      </c>
+      <c r="J23" t="n">
+        <v/>
+      </c>
+      <c r="K23" t="n">
+        <v/>
+      </c>
+      <c r="L23" t="n">
+        <v/>
+      </c>
+      <c r="M23" t="n">
+        <v/>
+      </c>
+      <c r="N23" t="n">
+        <v/>
+      </c>
+      <c r="O23" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="P23" t="n">
+        <v/>
+      </c>
+      <c r="Q23" t="n">
+        <v/>
+      </c>
+      <c r="R23" t="n">
+        <v/>
+      </c>
+      <c r="S23" t="n">
+        <v>7</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.2572</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.1674</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.92045</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.7857499999999999</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.6286</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.42655</v>
+      </c>
+      <c r="AB23" t="n">
+        <v/>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.956</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.989</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v/>
+      </c>
+      <c r="I24" t="n">
+        <v/>
+      </c>
+      <c r="J24" t="n">
+        <v/>
+      </c>
+      <c r="K24" t="n">
+        <v/>
+      </c>
+      <c r="L24" t="n">
+        <v/>
+      </c>
+      <c r="M24" t="n">
+        <v/>
+      </c>
+      <c r="N24" t="n">
+        <v/>
+      </c>
+      <c r="O24" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="P24" t="n">
+        <v/>
+      </c>
+      <c r="Q24" t="n">
+        <v/>
+      </c>
+      <c r="R24" t="n">
+        <v/>
+      </c>
+      <c r="S24" t="n">
+        <v>7</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.2572</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.1674</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.0327</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.92045</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.7857499999999999</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.6286</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.42655</v>
+      </c>
+      <c r="AB24" t="n">
+        <v/>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.969</v>
       </c>
     </row>
   </sheetData>
